--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17033\Desktop\AquaMicro Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17033\Desktop\AquaMicro Data\AquaticMicroData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{079A7D38-333A-41D8-9C80-AB44B79749BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CA04F6-F589-44BC-80DC-04B1CF6296EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="690" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ReadMe" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="70">
   <si>
     <t>Site information</t>
   </si>
@@ -228,9 +228,6 @@
     <t>VM1 (Vet Med)</t>
   </si>
   <si>
-    <t>NR</t>
-  </si>
-  <si>
     <t>VM2 (Vet Med)</t>
   </si>
   <si>
@@ -265,12 +262,6 @@
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>https://www.usclimatedata.com/climate/athens/georgia/united-states/usga0027/2019/9</t>
-  </si>
-  <si>
-    <t>Weather datat collected from US climate Data</t>
   </si>
 </sst>
 </file>
@@ -565,107 +556,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ1000"/>
+  <dimension ref="A1:AJ997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1088,7 +987,7 @@
         <v>46</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>47</v>
@@ -1157,7 +1056,7 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>45</v>
@@ -1166,7 +1065,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>47</v>
@@ -1234,50 +1133,124 @@
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="E8" s="3"/>
-      <c r="U8" s="8"/>
+      <c r="A8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1220</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="3">
+        <v>91</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" ref="H8:H14" si="4">(G8-32) * (5/9)</f>
+        <v>32.777777777777779</v>
+      </c>
+      <c r="I8" s="3">
+        <v>57</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" ref="J8:J14" si="5">(I8-32) * (5/9)</f>
+        <v>13.888888888888889</v>
+      </c>
+      <c r="K8" s="3">
+        <v>21.08</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="M8" s="3">
+        <v>7.82</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>2</v>
+      </c>
+      <c r="R8" s="3">
+        <v>2</v>
+      </c>
+      <c r="S8" s="3">
+        <v>20</v>
+      </c>
+      <c r="T8" s="3">
+        <v>18</v>
+      </c>
+      <c r="U8" s="6">
+        <v>5</v>
+      </c>
+      <c r="V8" s="7">
+        <f>AVERAGE(S8:T8)*10</f>
+        <v>190</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1225</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="3">
-        <v>1220</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="G9" s="3">
         <v>91</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" ref="H9:H15" si="4">(G9-32) * (5/9)</f>
+        <f t="shared" si="4"/>
         <v>32.777777777777779</v>
       </c>
       <c r="I9" s="3">
         <v>57</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" ref="J9:J15" si="5">(I9-32) * (5/9)</f>
+        <f t="shared" si="5"/>
         <v>13.888888888888889</v>
       </c>
       <c r="K9" s="3">
-        <v>21.08</v>
+        <v>20.07</v>
       </c>
       <c r="L9" s="3">
-        <v>0.16800000000000001</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="M9" s="3">
-        <v>7.82</v>
+        <v>7.96</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3">
@@ -1287,23 +1260,23 @@
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S9" s="3">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="T9" s="3">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="U9" s="6">
         <v>5</v>
       </c>
-      <c r="V9" s="7">
-        <f>AVERAGE(S9:T9)*10</f>
-        <v>190</v>
+      <c r="V9" s="3">
+        <f>AVERAGE(S9:T9)</f>
+        <v>35.5</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>45</v>
@@ -1317,22 +1290,22 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1146</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="3">
-        <v>1225</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="G10" s="3">
         <v>91</v>
@@ -1349,13 +1322,13 @@
         <v>13.888888888888889</v>
       </c>
       <c r="K10" s="3">
-        <v>20.07</v>
+        <v>20.5</v>
       </c>
       <c r="L10" s="3">
-        <v>0.11799999999999999</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="M10" s="3">
-        <v>7.96</v>
+        <v>7.73</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3">
@@ -1365,52 +1338,52 @@
         <v>100</v>
       </c>
       <c r="Q10" s="3">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="R10" s="3">
-        <v>3</v>
-      </c>
-      <c r="S10" s="3">
-        <v>34</v>
-      </c>
-      <c r="T10" s="3">
-        <v>37</v>
+        <v>77</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="U10" s="6">
         <v>5</v>
       </c>
-      <c r="V10" s="3">
-        <f>AVERAGE(S10:T10)</f>
-        <v>35.5</v>
+      <c r="V10" s="7">
+        <f t="shared" ref="V10:V11" si="6">AVERAGE(Q10:R10)*100</f>
+        <v>6000</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1150</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="3">
-        <v>1146</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="G11" s="3">
         <v>91</v>
@@ -1427,13 +1400,13 @@
         <v>13.888888888888889</v>
       </c>
       <c r="K11" s="3">
-        <v>20.5</v>
+        <v>20.84</v>
       </c>
       <c r="L11" s="3">
-        <v>0.16900000000000001</v>
+        <v>0.159</v>
       </c>
       <c r="M11" s="3">
-        <v>7.73</v>
+        <v>7.58</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3">
@@ -1443,10 +1416,10 @@
         <v>100</v>
       </c>
       <c r="Q11" s="3">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="R11" s="3">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>55</v>
@@ -1458,8 +1431,8 @@
         <v>5</v>
       </c>
       <c r="V11" s="7">
-        <f t="shared" ref="V11:V12" si="6">AVERAGE(Q11:R11)*100</f>
-        <v>6000</v>
+        <f t="shared" si="6"/>
+        <v>2000</v>
       </c>
       <c r="W11" s="3" t="s">
         <v>52</v>
@@ -1473,22 +1446,22 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1120</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="3">
-        <v>1150</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="G12" s="3">
         <v>91</v>
@@ -1505,13 +1478,13 @@
         <v>13.888888888888889</v>
       </c>
       <c r="K12" s="3">
-        <v>20.84</v>
+        <v>23.9</v>
       </c>
       <c r="L12" s="3">
-        <v>0.159</v>
+        <v>7.8E-2</v>
       </c>
       <c r="M12" s="3">
-        <v>7.58</v>
+        <v>8.4</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3">
@@ -1521,26 +1494,26 @@
         <v>100</v>
       </c>
       <c r="Q12" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>21</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>55</v>
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>2</v>
       </c>
       <c r="U12" s="6">
         <v>5</v>
       </c>
       <c r="V12" s="7">
-        <f t="shared" si="6"/>
-        <v>2000</v>
+        <f t="shared" ref="V12:V14" si="7">AVERAGE(S12:T12)*10</f>
+        <v>10</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>49</v>
@@ -1551,22 +1524,22 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1125</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="3">
-        <v>1120</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="G13" s="3">
         <v>91</v>
@@ -1583,17 +1556,17 @@
         <v>13.888888888888889</v>
       </c>
       <c r="K13" s="3">
-        <v>23.9</v>
+        <v>20.03</v>
       </c>
       <c r="L13" s="3">
-        <v>7.8E-2</v>
+        <v>0.22</v>
       </c>
       <c r="M13" s="3">
-        <v>8.4</v>
+        <v>7.7</v>
       </c>
       <c r="N13" s="3"/>
-      <c r="O13" s="3">
-        <v>100</v>
+      <c r="O13" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="P13" s="3">
         <v>100</v>
@@ -1605,17 +1578,17 @@
         <v>0</v>
       </c>
       <c r="S13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U13" s="6">
         <v>5</v>
       </c>
       <c r="V13" s="7">
-        <f t="shared" ref="V13:V15" si="7">AVERAGE(S13:T13)*10</f>
-        <v>10</v>
+        <f t="shared" si="7"/>
+        <v>25</v>
       </c>
       <c r="W13" s="3" t="s">
         <v>45</v>
@@ -1629,22 +1602,22 @@
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1155</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="3">
-        <v>1125</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="G14" s="3">
         <v>91</v>
@@ -1661,39 +1634,39 @@
         <v>13.888888888888889</v>
       </c>
       <c r="K14" s="3">
-        <v>20.03</v>
+        <v>21.87</v>
       </c>
       <c r="L14" s="3">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="M14" s="3">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P14" s="3">
         <v>100</v>
       </c>
       <c r="Q14" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R14" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S14" s="3">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="T14" s="3">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="U14" s="6">
         <v>5</v>
       </c>
       <c r="V14" s="7">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>340</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>45</v>
@@ -1707,122 +1680,176 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D15" s="3">
-        <v>1155</v>
+        <v>1055</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>62</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="3">
-        <v>91</v>
+        <v>79.3</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="4"/>
-        <v>32.777777777777779</v>
+        <f t="shared" ref="H15:H21" si="8">(G15-32) * (5/9)</f>
+        <v>26.277777777777779</v>
       </c>
       <c r="I15" s="3">
-        <v>57</v>
+        <v>57.2</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="5"/>
-        <v>13.888888888888889</v>
+        <f t="shared" ref="J15:J21" si="9">(I15-32) * (5/9)</f>
+        <v>14.000000000000002</v>
       </c>
       <c r="K15" s="3">
-        <v>21.87</v>
+        <v>21.09</v>
       </c>
       <c r="L15" s="3">
-        <v>0.34</v>
+        <v>0.23</v>
       </c>
       <c r="M15" s="3">
-        <v>7.6</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="3" t="s">
-        <v>65</v>
+      <c r="O15" s="3">
+        <v>100</v>
       </c>
       <c r="P15" s="3">
         <v>100</v>
       </c>
       <c r="Q15" s="3">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="R15" s="3">
-        <v>4</v>
-      </c>
-      <c r="S15" s="3">
-        <v>35</v>
-      </c>
-      <c r="T15" s="3">
-        <v>33</v>
+        <v>56</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="U15" s="6">
         <v>5</v>
       </c>
       <c r="V15" s="7">
-        <f t="shared" si="7"/>
-        <v>340</v>
+        <f>AVERAGE(Q15:R15)*100</f>
+        <v>5800</v>
       </c>
       <c r="W15" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="H16" s="3"/>
-      <c r="U16" s="8"/>
+      <c r="C16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1056</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
+        <v>79.3</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="8"/>
+        <v>26.277777777777779</v>
+      </c>
+      <c r="I16" s="3">
+        <v>57.2</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="9"/>
+        <v>14.000000000000002</v>
+      </c>
+      <c r="K16" s="3">
+        <v>21.53</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="M16" s="3">
+        <v>7.99</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3">
+        <v>100</v>
+      </c>
+      <c r="P16" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>5</v>
+      </c>
+      <c r="R16" s="3">
+        <v>6</v>
+      </c>
+      <c r="S16" s="3">
+        <v>55</v>
+      </c>
+      <c r="T16" s="3">
+        <v>48</v>
+      </c>
+      <c r="U16" s="6">
+        <v>5</v>
+      </c>
+      <c r="V16" s="7">
+        <f t="shared" ref="V16:V18" si="10">AVERAGE(S16:T16)*10</f>
+        <v>515</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="3">
-        <v>1055</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>68</v>
-      </c>
+        <v>1106</v>
+      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3">
         <v>79.3</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" ref="H17:H23" si="8">(G17-32) * (5/9)</f>
+        <f t="shared" si="8"/>
         <v>26.277777777777779</v>
       </c>
       <c r="I17" s="3">
         <v>57.2</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" ref="J17:J23" si="9">(I17-32) * (5/9)</f>
+        <f t="shared" si="9"/>
         <v>14.000000000000002</v>
       </c>
       <c r="K17" s="3">
-        <v>21.09</v>
+        <v>22.4</v>
       </c>
       <c r="L17" s="3">
-        <v>0.23</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="M17" s="3">
         <v>8.0299999999999994</v>
@@ -1835,23 +1862,23 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="R17" s="3">
-        <v>56</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>55</v>
+        <v>14</v>
+      </c>
+      <c r="S17" s="3">
+        <v>61</v>
+      </c>
+      <c r="T17" s="3">
+        <v>44</v>
       </c>
       <c r="U17" s="6">
         <v>5</v>
       </c>
       <c r="V17" s="7">
-        <f>AVERAGE(Q17:R17)*100</f>
-        <v>5800</v>
+        <f t="shared" si="10"/>
+        <v>525</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>52</v>
@@ -1859,16 +1886,16 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="3">
-        <v>1056</v>
+        <v>1110</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1887,13 +1914,13 @@
         <v>14.000000000000002</v>
       </c>
       <c r="K18" s="3">
-        <v>21.53</v>
+        <v>23.03</v>
       </c>
       <c r="L18" s="3">
-        <v>0.13500000000000001</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="M18" s="3">
-        <v>7.99</v>
+        <v>7.75</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3">
@@ -1903,23 +1930,23 @@
         <v>100</v>
       </c>
       <c r="Q18" s="3">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="R18" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="S18" s="3">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T18" s="3">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="U18" s="6">
         <v>5</v>
       </c>
       <c r="V18" s="7">
-        <f t="shared" ref="V18:V20" si="10">AVERAGE(S18:T18)*10</f>
-        <v>515</v>
+        <f t="shared" si="10"/>
+        <v>555</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>52</v>
@@ -1927,16 +1954,16 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="3">
-        <v>1106</v>
+        <v>1145</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1955,13 +1982,13 @@
         <v>14.000000000000002</v>
       </c>
       <c r="K19" s="3">
-        <v>22.4</v>
+        <v>23.09</v>
       </c>
       <c r="L19" s="3">
-        <v>0.17899999999999999</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="M19" s="3">
-        <v>8.0299999999999994</v>
+        <v>7.65</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3">
@@ -1971,40 +1998,39 @@
         <v>100</v>
       </c>
       <c r="Q19" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R19" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="S19" s="3">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="T19" s="3">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="U19" s="6">
         <v>5</v>
       </c>
-      <c r="V19" s="7">
-        <f t="shared" si="10"/>
-        <v>525</v>
+      <c r="V19" s="3">
+        <v>2.5</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="3">
-        <v>1110</v>
+        <v>1137</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -2023,56 +2049,59 @@
         <v>14.000000000000002</v>
       </c>
       <c r="K20" s="3">
-        <v>23.03</v>
+        <v>26.42</v>
       </c>
       <c r="L20" s="3">
-        <v>0.23799999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="M20" s="3">
-        <v>7.75</v>
+        <v>7.96</v>
       </c>
       <c r="N20" s="3"/>
-      <c r="O20" s="3">
-        <v>100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>100</v>
+      <c r="O20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="Q20" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="T20" s="3">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="U20" s="6">
         <v>5</v>
       </c>
       <c r="V20" s="7">
-        <f t="shared" si="10"/>
-        <v>555</v>
+        <f t="shared" ref="V20:V21" si="11">AVERAGE(S20:T20)*10</f>
+        <v>5</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="3">
-        <v>1145</v>
+        <v>1042</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -2091,13 +2120,13 @@
         <v>14.000000000000002</v>
       </c>
       <c r="K21" s="3">
-        <v>23.09</v>
+        <v>22.74</v>
       </c>
       <c r="L21" s="3">
-        <v>0.23499999999999999</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="M21" s="3">
-        <v>7.65</v>
+        <v>8.5</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3">
@@ -2107,135 +2136,121 @@
         <v>100</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="U21" s="6">
         <v>5</v>
       </c>
-      <c r="V21" s="3">
-        <v>2.5</v>
+      <c r="V21" s="7">
+        <f t="shared" si="11"/>
+        <v>245</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="X21" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="3">
-        <v>1137</v>
+        <v>1127</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3">
-        <v>79.3</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" si="8"/>
-        <v>26.277777777777779</v>
-      </c>
-      <c r="I22" s="3">
-        <v>57.2</v>
-      </c>
-      <c r="J22" s="3">
-        <f t="shared" si="9"/>
-        <v>14.000000000000002</v>
-      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
       <c r="K22" s="3">
-        <v>26.42</v>
+        <v>23.48</v>
       </c>
       <c r="L22" s="3">
-        <v>0.09</v>
+        <v>0.246</v>
       </c>
       <c r="M22" s="3">
-        <v>7.96</v>
+        <v>8.89</v>
       </c>
       <c r="N22" s="3"/>
-      <c r="O22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <v>1</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="U22" s="6">
         <v>5</v>
       </c>
-      <c r="V22" s="7">
-        <f t="shared" ref="V22:V23" si="11">AVERAGE(S22:T22)*10</f>
-        <v>5</v>
+      <c r="V22" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="Y22" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1042</v>
+        <v>68</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3">
-        <v>79.3</v>
-      </c>
-      <c r="H23" s="3">
-        <f t="shared" si="8"/>
-        <v>26.277777777777779</v>
-      </c>
-      <c r="I23" s="3">
-        <v>57.2</v>
-      </c>
-      <c r="J23" s="3">
-        <f t="shared" si="9"/>
-        <v>14.000000000000002</v>
-      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
       <c r="K23" s="3">
-        <v>22.74</v>
+        <v>24.42</v>
       </c>
       <c r="L23" s="3">
-        <v>0.33600000000000002</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="M23" s="3">
-        <v>8.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3">
@@ -2244,180 +2259,58 @@
       <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>8</v>
-      </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
-        <v>21</v>
-      </c>
-      <c r="T23" s="3">
-        <v>28</v>
+      <c r="Q23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="U23" s="6">
         <v>5</v>
       </c>
-      <c r="V23" s="7">
-        <f t="shared" si="11"/>
-        <v>245</v>
+      <c r="V23" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="X23" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="Y23" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="U24" s="8"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1127</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3">
-        <v>23.48</v>
-      </c>
-      <c r="L25" s="3">
-        <v>0.246</v>
-      </c>
-      <c r="M25" s="3">
-        <v>8.89</v>
-      </c>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3">
-        <v>100</v>
-      </c>
-      <c r="P25" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U25" s="6">
-        <v>5</v>
-      </c>
-      <c r="V25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="W25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="X25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y25" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="U25" s="8"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3">
-        <v>24.42</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="M26" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U26" s="6">
-        <v>5</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="X26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y26" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="U26" s="8"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B27" s="9"/>
       <c r="U27" s="8"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B28" s="3"/>
       <c r="U28" s="8"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="U29" s="8"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B30" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="U30" s="8"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="U31" s="8"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
@@ -5318,20 +5211,99 @@
     <row r="997" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U997" s="8"/>
     </row>
-    <row r="998" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U998" s="8"/>
-    </row>
-    <row r="999" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U999" s="8"/>
-    </row>
-    <row r="1000" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U1000" s="8"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B30" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8455841-3B86-49AB-A5FB-6942CE925423}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>